--- a/raw_game_pulls/6199652_Play-By-Play for Cornell vs Wells.xlsx
+++ b/raw_game_pulls/6199652_Play-By-Play for Cornell vs Wells.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ddb8727edf2838dd/Documents/Development/NCAA_Markov/raw_game_pulls/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_5AE943E97253CB31A32D4C999D2D305979799450" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35F25720-7F4E-4505-AFB5-78B400AB8E19}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -682,156 +688,42 @@
     <t>00:04</t>
   </si>
   <si>
-    <t>CU Turnover by Okereke, Ak</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 Pointer MISSED by Wells's Bangel, John </t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Noard, Cooper</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Williams, Nazir</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>Layup GOOD by CU's Okereke, Ak</t>
-  </si>
-  <si>
-    <t>CU Assist by Williams, Nazir</t>
-  </si>
-  <si>
     <t>Wells Turnover by team</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by CU's Williams, Nazir</t>
-  </si>
-  <si>
-    <t>CU Assist by Noard, Cooper</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Wells's Clayton-murphy, Terrance</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Noard, Cooper</t>
-  </si>
-  <si>
     <t>Wells Defensive REBOUND by Mccrae, Billy</t>
   </si>
   <si>
     <t>Wells Turnover by Clayton-murphy, Terrance</t>
   </si>
   <si>
-    <t>CU Steal by Manon, Chris</t>
-  </si>
-  <si>
-    <t>CU Assist by Manon, Chris</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Wells's Welch, Chase</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Hansen, Sean</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Hansen, Sean</t>
-  </si>
-  <si>
-    <t>Layup GOOD by CU's Hansen, Sean</t>
-  </si>
-  <si>
     <t>Foul on Wells's Rodriguez, Ransel</t>
   </si>
   <si>
-    <t>Free Throw GOOD by CU's Hansen, Sean</t>
-  </si>
-  <si>
     <t>Layup MISSED by Wells's Welch, Chase</t>
   </si>
   <si>
-    <t>Layup MISSED by CU's Hansen, Sean</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Okereke, Ak</t>
-  </si>
-  <si>
-    <t>CU Steal by Noard, Cooper</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Williams, Nazir</t>
-  </si>
-  <si>
     <t>Foul on Wells's Welch, Chase</t>
   </si>
   <si>
     <t>Media timeout</t>
   </si>
   <si>
-    <t>Subbing out for CU - Williams, Nazir</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Okereke, Ak</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Manon, Chris</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Noard, Cooper</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Beccles, Jacob</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Boothby, Keller</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Nix, Dj</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by CU's Hansen, Sean</t>
-  </si>
-  <si>
-    <t>CU gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Hansen, Sean</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Wells Turnover by Mccrae, Billy</t>
   </si>
   <si>
-    <t>CU Steal by Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by CU's Boothby, Keller</t>
-  </si>
-  <si>
-    <t>CU Assist by Beccles, Jacob</t>
-  </si>
-  <si>
     <t xml:space="preserve">Layup MISSED by Wells's Bangel, John </t>
   </si>
   <si>
-    <t>CU Block by Nix, Dj</t>
-  </si>
-  <si>
-    <t>CU Defensive REBOUND by Nix, Dj</t>
-  </si>
-  <si>
-    <t>Foul on CU's Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>CU Turnover by Fiegen, Jake</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subbing out for Wells - Bangel, John </t>
   </si>
   <si>
@@ -844,48 +736,18 @@
     <t>Subbing in for Wells - Oduro-dompreh, Ivan</t>
   </si>
   <si>
-    <t>Foul on CU's Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Jumper GOOD by Wells's Welch, Chase</t>
   </si>
   <si>
-    <t>Layup MISSED by CU's Beccles, Jacob</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Fiegen, Jake</t>
-  </si>
-  <si>
     <t>Wells Block by Clayton-murphy, Terrance</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by CU's Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>CU Assist by Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>CU Defensive REBOUND by Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Boothby, Keller</t>
-  </si>
-  <si>
     <t>Wells Defensive REBOUND by Rodriguez, Ransel</t>
   </si>
   <si>
     <t>Wells Turnover by Rodriguez, Ransel</t>
   </si>
   <si>
-    <t>CU Steal by Beccles, Jacob</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by CU's Beccles, Jacob</t>
-  </si>
-  <si>
-    <t>Foul on CU's Boothby, Keller</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by Wells's Welch, Chase</t>
   </si>
   <si>
@@ -895,84 +757,24 @@
     <t>Free Throw GOOD by Wells's Welch, Chase</t>
   </si>
   <si>
-    <t>Jumper GOOD by CU's Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Wells Turnover by Welch, Chase</t>
   </si>
   <si>
-    <t>CU Steal by Boothby, Keller</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Nix, Dj</t>
-  </si>
-  <si>
     <t>Wells Block by Rodriguez, Ransel</t>
   </si>
   <si>
-    <t>Subbing out for CU - Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Kiachian, Ryan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subbing in for CU - Hinton, Adam tsang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU Defensive REBOUND by Hinton, Adam tsang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 Pointer MISSED by CU's Hinton, Adam tsang </t>
-  </si>
-  <si>
     <t>Jumper MISSED by Wells's Clayton-murphy, Terrance</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Beccles, Jacob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU Offensive REBOUND by Hinton, Adam tsang </t>
-  </si>
-  <si>
-    <t>Layup GOOD by CU's Beccles, Jacob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU Assist by Hinton, Adam tsang </t>
-  </si>
-  <si>
     <t>Layup MISSED by Wells's Rodriguez, Ransel</t>
   </si>
   <si>
-    <t xml:space="preserve">CU Block by Hinton, Adam tsang </t>
-  </si>
-  <si>
     <t>Wells Offensive REBOUND by Oduro-dompreh, Ivan</t>
   </si>
   <si>
     <t>Layup GOOD by Wells's Oduro-dompreh, Ivan</t>
   </si>
   <si>
-    <t>CU Offensive REBOUND by Kiachian, Ryan</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Kiachian, Ryan</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Beccles, Jacob</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Boothby, Keller</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Ervin, Darius</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Cain, Chris</t>
-  </si>
-  <si>
     <t>Subbing out for Wells - Grant, Alex</t>
   </si>
   <si>
@@ -985,87 +787,33 @@
     <t>Subbing in for Wells - Mccrae, Billy</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Cain, Chris</t>
-  </si>
-  <si>
     <t>Wells Defensive REBOUND by Oduro-dompreh, Ivan</t>
   </si>
   <si>
     <t>Jumper GOOD by Wells's Rodriguez, Ransel</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Nix, Dj</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Nix, Dj</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Ervin, Darius</t>
-  </si>
-  <si>
     <t>Layup GOOD by Wells's Mccrae, Billy</t>
   </si>
   <si>
-    <t>Jumper GOOD by CU's Kiachian, Ryan</t>
-  </si>
-  <si>
-    <t>CU Assist by Cain, Chris</t>
-  </si>
-  <si>
-    <t>CU Block by Kiachian, Ryan</t>
-  </si>
-  <si>
     <t>Wells Offensive REBOUND by Rodriguez, Ransel</t>
   </si>
   <si>
-    <t>Subbing out for CU - Nix, Dj</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Williams, Evan</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Williams, Evan</t>
-  </si>
-  <si>
     <t>Wells Defensive REBOUND by team</t>
   </si>
   <si>
-    <t>Layup GOOD by CU's Cain, Chris</t>
-  </si>
-  <si>
-    <t>CU Assist by Kiachian, Ryan</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Wells's Oduro-dompreh, Ivan</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Cain, Chris</t>
-  </si>
-  <si>
     <t>Wells Block by Oduro-dompreh, Ivan</t>
   </si>
   <si>
-    <t>Layup GOOD by CU's Kiachian, Ryan</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Wells's Hauser, Evan</t>
   </si>
   <si>
-    <t>Layup GOOD by CU's Williams, Evan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foul on CU's Hinton, Adam tsang </t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Wells's Rodriguez, Ransel</t>
   </si>
   <si>
-    <t xml:space="preserve">Subbing out for CU - Hinton, Adam tsang </t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Watson, Max</t>
-  </si>
-  <si>
     <t>Subbing out for Wells - Hauser, Evan</t>
   </si>
   <si>
@@ -1084,9 +832,6 @@
     <t>Subbing in for Wells - Lucey, James</t>
   </si>
   <si>
-    <t>Jumper MISSED by CU's Ervin, Darius</t>
-  </si>
-  <si>
     <t>Wells Defensive REBOUND by Lucey, James</t>
   </si>
   <si>
@@ -1096,81 +841,27 @@
     <t>Wells Assist by Rodriguez, Ransel</t>
   </si>
   <si>
-    <t>Slam Dunk GOOD by CU's Cain, Chris</t>
-  </si>
-  <si>
-    <t>CU Assist by Watson, Max</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Watson, Max</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Cain, Chris</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Cain, Chris</t>
-  </si>
-  <si>
     <t xml:space="preserve">3 Pointer GOOD by Wells's Bangel, John </t>
   </si>
   <si>
     <t>Wells Assist by Lucey, James</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by CU's Ervin, Darius</t>
-  </si>
-  <si>
-    <t>CU Steal by Ervin, Darius</t>
-  </si>
-  <si>
-    <t>CU Turnover by Cain, Chris</t>
-  </si>
-  <si>
     <t>Wells Steal by Lucey, James</t>
   </si>
   <si>
-    <t>Subbing out for CU - Kiachian, Ryan</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Cain, Chris</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Imegwu, Ian</t>
-  </si>
-  <si>
-    <t>CU Defensive REBOUND by Ervin, Darius</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by CU's Imegwu, Ian</t>
-  </si>
-  <si>
-    <t>CU Assist by Ervin, Darius</t>
-  </si>
-  <si>
     <t>Wells Offensive REBOUND by Lucey, James</t>
   </si>
   <si>
-    <t>Foul on CU's Williams, Evan</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Wells's Lucey, James</t>
   </si>
   <si>
     <t>Subbing in for Wells - Welch, Chase</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by CU's Watson, Max</t>
-  </si>
-  <si>
-    <t>CU Assist by Williams, Evan</t>
-  </si>
-  <si>
     <t>Wells Turnover by Lucey, James</t>
   </si>
   <si>
-    <t>Subbing in for CU - Franson, Hayden</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Wells's Welch, Chase</t>
   </si>
   <si>
@@ -1189,144 +880,36 @@
     <t xml:space="preserve">Wells Block by Bangel, John </t>
   </si>
   <si>
-    <t>Subbing out for CU - Williams, Evan</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Imegwu, Ian</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Franson, Hayden</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Ervin, Darius</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Watson, Max</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Williams, Nazir</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Okereke, Ak</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Hansen, Sean</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Manon, Chris</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Noard, Cooper</t>
-  </si>
-  <si>
     <t>Subbing out for Wells - Lucey, James</t>
   </si>
   <si>
-    <t>CU Assist by Hansen, Sean</t>
-  </si>
-  <si>
     <t>Wells Assist by Clayton-murphy, Terrance</t>
   </si>
   <si>
-    <t>CU Offensive REBOUND by Williams, Nazir</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by CU's Noard, Cooper</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by CU's Okereke, Ak</t>
-  </si>
-  <si>
     <t>Wells Assist by Welch, Chase</t>
   </si>
   <si>
-    <t>Layup GOOD by CU's Manon, Chris</t>
-  </si>
-  <si>
-    <t>CU Steal by Okereke, Ak</t>
-  </si>
-  <si>
-    <t>CU Defensive REBOUND by Okereke, Ak</t>
-  </si>
-  <si>
-    <t>Slam Dunk GOOD by CU's Manon, Chris</t>
-  </si>
-  <si>
-    <t>CU Assist by Okereke, Ak</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by Wells's Welch, Chase</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Hansen, Sean</t>
-  </si>
-  <si>
     <t>Wells Defensive REBOUND by Welch, Chase</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Okereke, Ak</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Okereke, Ak</t>
-  </si>
-  <si>
     <t>Layup MISSED by Wells's Clayton-murphy, Terrance</t>
   </si>
   <si>
-    <t>Foul on CU's Williams, Nazir</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>Layup GOOD by CU's Nix, Dj</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>Layup GOOD by CU's Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Wells's Rodriguez, Ransel</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Kiachian, Ryan</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Watson, Max</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by CU's Kiachian, Ryan</t>
-  </si>
-  <si>
-    <t>Foul on CU's Kiachian, Ryan</t>
-  </si>
-  <si>
     <t>Subbing in for Wells - Bangel, Joe</t>
   </si>
   <si>
     <t>Layup MISSED by Wells's Bangel, Joe</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Watson, Max</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by CU's Beccles, Jacob</t>
-  </si>
-  <si>
     <t>Wells Defensive REBOUND by Bangel, Joe</t>
   </si>
   <si>
-    <t>CU Steal by Watson, Max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CU Turnover by Hinton, Adam tsang </t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by CU's Beccles, Jacob</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wells Defensive REBOUND by Bangel, John </t>
   </si>
   <si>
@@ -1339,66 +922,27 @@
     <t>Wells Turnover by Johnson, Don'ye</t>
   </si>
   <si>
-    <t>CU Block by Watson, Max</t>
-  </si>
-  <si>
     <t xml:space="preserve">Foul on Wells's Bangel, John </t>
   </si>
   <si>
-    <t>Free Throw GOOD by CU's Williams, Evan</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by CU's Williams, Evan</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Williams, Evan</t>
-  </si>
-  <si>
     <t>Jumper GOOD by Wells's Grant, Alex</t>
   </si>
   <si>
     <t>Wells Assist by Johnson, Don'ye</t>
   </si>
   <si>
-    <t>Layup MISSED by CU's Ervin, Darius</t>
-  </si>
-  <si>
-    <t>CU Assist by Franson, Hayden</t>
-  </si>
-  <si>
     <t>Wells Turnover by Grant, Alex</t>
   </si>
   <si>
-    <t>CU Steal by Williams, Evan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free Throw GOOD by CU's Hinton, Adam tsang </t>
-  </si>
-  <si>
     <t>Subbing in for Wells - Harrison, Elijah</t>
   </si>
   <si>
     <t>Jumper MISSED by Wells's Johnson, Don'ye</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Franson, Hayden</t>
-  </si>
-  <si>
-    <t>CU Turnover by Ervin, Darius</t>
-  </si>
-  <si>
     <t>Subbing in for Wells - Otero, Angel</t>
   </si>
   <si>
-    <t>Jumper MISSED by CU's Franson, Hayden</t>
-  </si>
-  <si>
-    <t>CU Turnover by team</t>
-  </si>
-  <si>
-    <t>CU Steal by Franson, Hayden</t>
-  </si>
-  <si>
     <t>Subbing out for Wells - Johnson, Don'ye</t>
   </si>
   <si>
@@ -1411,9 +955,6 @@
     <t>Foul on Wells's Harrison, Elijah</t>
   </si>
   <si>
-    <t>Free Throw GOOD by CU's Ervin, Darius</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Wells's Otero, Angel</t>
   </si>
   <si>
@@ -1441,38 +982,503 @@
     <t>Foul on Wells's Mcintyre, Wesley</t>
   </si>
   <si>
-    <t>Free Throw MISSED by CU's Franson, Hayden</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Wells's Mcintyre, Wesley</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Imegwu, Ian</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Imegwu, Ian</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Franson, Hayden</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Imegwu, Ian</t>
-  </si>
-  <si>
-    <t>CU Turnover by Imegwu, Ian</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Wells's Bangel, Joe</t>
   </si>
   <si>
     <t>Wells Turnover by Bacote jr., Darus</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Okereke, Ak</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Noard, Cooper</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Hansen, Sean</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Hansen, Sean</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Hansen, Sean</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by CORNELL's Hansen, Sean</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Boothby, Keller</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Boothby, Keller</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by CORNELL's Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Boothby, Keller</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Nix, Dj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Pointer MISSED by CORNELL's Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Cain, Chris</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Nix, Dj</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Ervin, Darius</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by CORNELL's Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Williams, Evan</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Cain, Chris</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Williams, Evan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foul on CORNELL's Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t>Jumper MISSED by CORNELL's Ervin, Darius</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by CORNELL's Cain, Chris</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Watson, Max</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Cain, Chris</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Ervin, Darius</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Imegwu, Ian</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Williams, Evan</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Watson, Max</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Noard, Cooper</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Okereke, Ak</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Manon, Chris</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by CORNELL's Manon, Chris</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Hansen, Sean</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Okereke, Ak</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Okereke, Ak</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Nix, Dj</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Watson, Max</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by CORNELL's Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Williams, Evan</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by CORNELL's Williams, Evan</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Ervin, Darius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free Throw GOOD by CORNELL's Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t>Jumper MISSED by CORNELL's Franson, Hayden</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Ervin, Darius</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by CORNELL's Franson, Hayden</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Imegwu, Ian</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Franson, Hayden</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Okereke, Ak</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Noard, Cooper</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Williams, Nazir</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Noard, Cooper</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Manon, Chris</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Manon, Chris</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Hansen, Sean</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Hansen, Sean</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Okereke, Ak</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Noard, Cooper</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Okereke, Ak</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Manon, Chris</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Noard, Cooper</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Boothby, Keller</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Nix, Dj</t>
+  </si>
+  <si>
+    <t>CORNELL gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Hansen, Sean</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>CORNELL Block by Nix, Dj</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Nix, Dj</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Boothby, Keller</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subbing in for CORNELL - Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORNELL Defensive REBOUND by Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORNELL Offensive REBOUND by Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORNELL Assist by Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORNELL Block by Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Boothby, Keller</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Ervin, Darius</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Cain, Chris</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Nix, Dj</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Cain, Chris</t>
+  </si>
+  <si>
+    <t>CORNELL Block by Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Nix, Dj</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Williams, Evan</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Cain, Chris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subbing out for CORNELL - Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Watson, Max</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Watson, Max</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Cain, Chris</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Ervin, Darius</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Cain, Chris</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Cain, Chris</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Imegwu, Ian</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Ervin, Darius</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Ervin, Darius</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Williams, Evan</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Franson, Hayden</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Williams, Evan</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Imegwu, Ian</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Franson, Hayden</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Ervin, Darius</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Watson, Max</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Okereke, Ak</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Hansen, Sean</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Manon, Chris</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Noard, Cooper</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Hansen, Sean</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Williams, Nazir</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Okereke, Ak</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Okereke, Ak</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Okereke, Ak</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Kiachian, Ryan</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Watson, Max</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Watson, Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORNELL Turnover by Hinton, Adam tsang </t>
+  </si>
+  <si>
+    <t>CORNELL Block by Watson, Max</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Williams, Evan</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Franson, Hayden</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Williams, Evan</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Franson, Hayden</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Ervin, Darius</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by team</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Franson, Hayden</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Imegwu, Ian</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Imegwu, Ian</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Imegwu, Ian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1535,13 +1541,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1579,7 +1593,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1613,6 +1627,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1647,9 +1662,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1822,14 +1838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1846,7 +1862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1860,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1877,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1894,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1911,10 +1927,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1928,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1945,10 +1961,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1962,10 +1978,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1979,10 +1995,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1996,10 +2012,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2013,10 +2029,10 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2030,10 +2046,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2047,10 +2063,10 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2064,10 +2080,10 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2081,10 +2097,10 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2098,10 +2114,10 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2115,10 +2131,10 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2132,10 +2148,10 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2149,10 +2165,10 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2166,10 +2182,10 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2183,10 +2199,10 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2200,10 +2216,10 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2217,10 +2233,10 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2234,10 +2250,10 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2251,10 +2267,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2268,10 +2284,10 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2285,10 +2301,10 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2302,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2319,10 +2335,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2336,10 +2352,10 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2353,10 +2369,10 @@
         <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2370,10 +2386,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2387,10 +2403,10 @@
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2404,10 +2420,10 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2421,10 +2437,10 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2438,10 +2454,10 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2455,10 +2471,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2472,10 +2488,10 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2489,10 +2505,10 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2506,10 +2522,10 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2523,10 +2539,10 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2540,10 +2556,10 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2557,10 +2573,10 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2574,10 +2590,10 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2591,10 +2607,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2608,10 +2624,10 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2625,10 +2641,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2642,10 +2658,10 @@
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2659,10 +2675,10 @@
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2676,10 +2692,10 @@
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2693,10 +2709,10 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2710,10 +2726,10 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2727,10 +2743,10 @@
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2744,10 +2760,10 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2761,10 +2777,10 @@
         <v>14</v>
       </c>
       <c r="E55" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2778,10 +2794,10 @@
         <v>14</v>
       </c>
       <c r="E56" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2795,10 +2811,10 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2812,10 +2828,10 @@
         <v>14</v>
       </c>
       <c r="E58" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2829,10 +2845,10 @@
         <v>14</v>
       </c>
       <c r="E59" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2846,10 +2862,10 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2863,10 +2879,10 @@
         <v>14</v>
       </c>
       <c r="E61" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2880,10 +2896,10 @@
         <v>14</v>
       </c>
       <c r="E62" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2897,10 +2913,10 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2914,10 +2930,10 @@
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2931,10 +2947,10 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2948,10 +2964,10 @@
         <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2965,10 +2981,10 @@
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2982,10 +2998,10 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2999,10 +3015,10 @@
         <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3016,10 +3032,10 @@
         <v>17</v>
       </c>
       <c r="E70" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3033,10 +3049,10 @@
         <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3050,10 +3066,10 @@
         <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3067,10 +3083,10 @@
         <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3084,10 +3100,10 @@
         <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3101,10 +3117,10 @@
         <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3118,10 +3134,10 @@
         <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3135,10 +3151,10 @@
         <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3152,10 +3168,10 @@
         <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3169,10 +3185,10 @@
         <v>19</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3186,10 +3202,10 @@
         <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3203,10 +3219,10 @@
         <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3220,10 +3236,10 @@
         <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3237,10 +3253,10 @@
         <v>21</v>
       </c>
       <c r="E83" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3254,10 +3270,10 @@
         <v>23</v>
       </c>
       <c r="E84" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3271,10 +3287,10 @@
         <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3288,10 +3304,10 @@
         <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3305,10 +3321,10 @@
         <v>23</v>
       </c>
       <c r="E87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3322,10 +3338,10 @@
         <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3339,10 +3355,10 @@
         <v>23</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3356,10 +3372,10 @@
         <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3373,10 +3389,10 @@
         <v>26</v>
       </c>
       <c r="E91" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3390,10 +3406,10 @@
         <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3407,10 +3423,10 @@
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3424,10 +3440,10 @@
         <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3441,10 +3457,10 @@
         <v>26</v>
       </c>
       <c r="E95" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3458,10 +3474,10 @@
         <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3475,10 +3491,10 @@
         <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3492,10 +3508,10 @@
         <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3509,10 +3525,10 @@
         <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3526,10 +3542,10 @@
         <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3543,10 +3559,10 @@
         <v>26</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3560,10 +3576,10 @@
         <v>26</v>
       </c>
       <c r="E102" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3577,10 +3593,10 @@
         <v>26</v>
       </c>
       <c r="E103" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3594,10 +3610,10 @@
         <v>26</v>
       </c>
       <c r="E104" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3611,10 +3627,10 @@
         <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3628,10 +3644,10 @@
         <v>28</v>
       </c>
       <c r="E106" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3645,10 +3661,10 @@
         <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3662,10 +3678,10 @@
         <v>28</v>
       </c>
       <c r="E108" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3679,10 +3695,10 @@
         <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3696,10 +3712,10 @@
         <v>28</v>
       </c>
       <c r="E110" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3713,10 +3729,10 @@
         <v>28</v>
       </c>
       <c r="E111" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3730,10 +3746,10 @@
         <v>28</v>
       </c>
       <c r="E112" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3747,10 +3763,10 @@
         <v>28</v>
       </c>
       <c r="E113" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3764,10 +3780,10 @@
         <v>28</v>
       </c>
       <c r="E114" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3781,10 +3797,10 @@
         <v>28</v>
       </c>
       <c r="E115" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3798,10 +3814,10 @@
         <v>28</v>
       </c>
       <c r="E116" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3815,10 +3831,10 @@
         <v>28</v>
       </c>
       <c r="E117" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3832,10 +3848,10 @@
         <v>28</v>
       </c>
       <c r="E118" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3849,10 +3865,10 @@
         <v>28</v>
       </c>
       <c r="E119" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3866,10 +3882,10 @@
         <v>28</v>
       </c>
       <c r="E120" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3883,10 +3899,10 @@
         <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3900,10 +3916,10 @@
         <v>28</v>
       </c>
       <c r="E122" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3917,10 +3933,10 @@
         <v>28</v>
       </c>
       <c r="E123" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3934,10 +3950,10 @@
         <v>28</v>
       </c>
       <c r="E124" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3951,10 +3967,10 @@
         <v>28</v>
       </c>
       <c r="E125" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3968,10 +3984,10 @@
         <v>28</v>
       </c>
       <c r="E126" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3985,10 +4001,10 @@
         <v>28</v>
       </c>
       <c r="E127" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4002,10 +4018,10 @@
         <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4019,10 +4035,10 @@
         <v>28</v>
       </c>
       <c r="E129" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4036,10 +4052,10 @@
         <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4053,10 +4069,10 @@
         <v>30</v>
       </c>
       <c r="E131" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4070,10 +4086,10 @@
         <v>30</v>
       </c>
       <c r="E132" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4087,10 +4103,10 @@
         <v>30</v>
       </c>
       <c r="E133" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4104,10 +4120,10 @@
         <v>30</v>
       </c>
       <c r="E134" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4121,10 +4137,10 @@
         <v>30</v>
       </c>
       <c r="E135" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4138,10 +4154,10 @@
         <v>30</v>
       </c>
       <c r="E136" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4155,10 +4171,10 @@
         <v>30</v>
       </c>
       <c r="E137" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4172,10 +4188,10 @@
         <v>30</v>
       </c>
       <c r="E138" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4189,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="E139" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4206,10 +4222,10 @@
         <v>30</v>
       </c>
       <c r="E140" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4223,10 +4239,10 @@
         <v>30</v>
       </c>
       <c r="E141" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4240,10 +4256,10 @@
         <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4257,10 +4273,10 @@
         <v>32</v>
       </c>
       <c r="E143" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4274,10 +4290,10 @@
         <v>32</v>
       </c>
       <c r="E144" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4291,10 +4307,10 @@
         <v>32</v>
       </c>
       <c r="E145" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4308,10 +4324,10 @@
         <v>32</v>
       </c>
       <c r="E146" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4325,10 +4341,10 @@
         <v>32</v>
       </c>
       <c r="E147" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4342,10 +4358,10 @@
         <v>32</v>
       </c>
       <c r="E148" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4359,10 +4375,10 @@
         <v>32</v>
       </c>
       <c r="E149" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4376,10 +4392,10 @@
         <v>34</v>
       </c>
       <c r="E150" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4393,10 +4409,10 @@
         <v>34</v>
       </c>
       <c r="E151" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4410,10 +4426,10 @@
         <v>34</v>
       </c>
       <c r="E152" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4427,10 +4443,10 @@
         <v>36</v>
       </c>
       <c r="E153" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4444,10 +4460,10 @@
         <v>36</v>
       </c>
       <c r="E154" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4461,10 +4477,10 @@
         <v>36</v>
       </c>
       <c r="E155" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4478,10 +4494,10 @@
         <v>36</v>
       </c>
       <c r="E156" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4495,10 +4511,10 @@
         <v>36</v>
       </c>
       <c r="E157" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4512,10 +4528,10 @@
         <v>36</v>
       </c>
       <c r="E158" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4529,10 +4545,10 @@
         <v>36</v>
       </c>
       <c r="E159" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4546,10 +4562,10 @@
         <v>36</v>
       </c>
       <c r="E160" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4563,10 +4579,10 @@
         <v>36</v>
       </c>
       <c r="E161" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4580,10 +4596,10 @@
         <v>36</v>
       </c>
       <c r="E162" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4597,10 +4613,10 @@
         <v>36</v>
       </c>
       <c r="E163" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4614,10 +4630,10 @@
         <v>36</v>
       </c>
       <c r="E164" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4631,10 +4647,10 @@
         <v>36</v>
       </c>
       <c r="E165" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4648,10 +4664,10 @@
         <v>36</v>
       </c>
       <c r="E166" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4665,10 +4681,10 @@
         <v>36</v>
       </c>
       <c r="E167" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4682,10 +4698,10 @@
         <v>36</v>
       </c>
       <c r="E168" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4699,10 +4715,10 @@
         <v>36</v>
       </c>
       <c r="E169" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4716,10 +4732,10 @@
         <v>38</v>
       </c>
       <c r="E170" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4733,10 +4749,10 @@
         <v>38</v>
       </c>
       <c r="E171" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4750,10 +4766,10 @@
         <v>38</v>
       </c>
       <c r="E172" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4767,10 +4783,10 @@
         <v>38</v>
       </c>
       <c r="E173" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4784,10 +4800,10 @@
         <v>38</v>
       </c>
       <c r="E174" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4801,10 +4817,10 @@
         <v>38</v>
       </c>
       <c r="E175" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4818,10 +4834,10 @@
         <v>38</v>
       </c>
       <c r="E176" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4835,10 +4851,10 @@
         <v>38</v>
       </c>
       <c r="E177" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4852,10 +4868,10 @@
         <v>38</v>
       </c>
       <c r="E178" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4869,10 +4885,10 @@
         <v>38</v>
       </c>
       <c r="E179" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4886,10 +4902,10 @@
         <v>40</v>
       </c>
       <c r="E180" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4903,10 +4919,10 @@
         <v>40</v>
       </c>
       <c r="E181" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4920,10 +4936,10 @@
         <v>40</v>
       </c>
       <c r="E182" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4937,10 +4953,10 @@
         <v>43</v>
       </c>
       <c r="E183" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4954,10 +4970,10 @@
         <v>43</v>
       </c>
       <c r="E184" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4971,10 +4987,10 @@
         <v>43</v>
       </c>
       <c r="E185" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4988,10 +5004,10 @@
         <v>43</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -5005,10 +5021,10 @@
         <v>43</v>
       </c>
       <c r="E187" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -5022,10 +5038,10 @@
         <v>43</v>
       </c>
       <c r="E188" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1</v>
       </c>
@@ -5039,10 +5055,10 @@
         <v>43</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5056,10 +5072,10 @@
         <v>43</v>
       </c>
       <c r="E190" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5073,10 +5089,10 @@
         <v>43</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5090,10 +5106,10 @@
         <v>43</v>
       </c>
       <c r="E192" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5107,10 +5123,10 @@
         <v>43</v>
       </c>
       <c r="E193" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5124,10 +5140,10 @@
         <v>43</v>
       </c>
       <c r="E194" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5141,10 +5157,10 @@
         <v>46</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5158,10 +5174,10 @@
         <v>46</v>
       </c>
       <c r="E196" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5175,10 +5191,10 @@
         <v>46</v>
       </c>
       <c r="E197" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5192,10 +5208,10 @@
         <v>46</v>
       </c>
       <c r="E198" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5209,10 +5225,10 @@
         <v>46</v>
       </c>
       <c r="E199" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5226,10 +5242,10 @@
         <v>46</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5243,10 +5259,10 @@
         <v>46</v>
       </c>
       <c r="E201" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5260,10 +5276,10 @@
         <v>46</v>
       </c>
       <c r="E202" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5277,10 +5293,10 @@
         <v>46</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5294,10 +5310,10 @@
         <v>49</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5311,10 +5327,10 @@
         <v>49</v>
       </c>
       <c r="E205" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5328,10 +5344,10 @@
         <v>49</v>
       </c>
       <c r="E206" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5345,10 +5361,10 @@
         <v>49</v>
       </c>
       <c r="E207" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5362,10 +5378,10 @@
         <v>49</v>
       </c>
       <c r="E208" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5379,10 +5395,10 @@
         <v>49</v>
       </c>
       <c r="E209" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5396,10 +5412,10 @@
         <v>49</v>
       </c>
       <c r="E210" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5413,10 +5429,10 @@
         <v>49</v>
       </c>
       <c r="E211" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5430,10 +5446,10 @@
         <v>52</v>
       </c>
       <c r="E212" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5447,10 +5463,10 @@
         <v>52</v>
       </c>
       <c r="E213" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5464,10 +5480,10 @@
         <v>52</v>
       </c>
       <c r="E214" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5481,10 +5497,10 @@
         <v>52</v>
       </c>
       <c r="E215" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5498,10 +5514,10 @@
         <v>52</v>
       </c>
       <c r="E216" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5515,10 +5531,10 @@
         <v>52</v>
       </c>
       <c r="E217" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5532,10 +5548,10 @@
         <v>52</v>
       </c>
       <c r="E218" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5549,10 +5565,10 @@
         <v>52</v>
       </c>
       <c r="E219" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5566,10 +5582,10 @@
         <v>52</v>
       </c>
       <c r="E220" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5583,10 +5599,10 @@
         <v>52</v>
       </c>
       <c r="E221" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2</v>
       </c>
@@ -5600,10 +5616,10 @@
         <v>52</v>
       </c>
       <c r="E222" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2</v>
       </c>
@@ -5617,10 +5633,10 @@
         <v>52</v>
       </c>
       <c r="E223" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2</v>
       </c>
@@ -5634,10 +5650,10 @@
         <v>52</v>
       </c>
       <c r="E224" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2</v>
       </c>
@@ -5651,10 +5667,10 @@
         <v>52</v>
       </c>
       <c r="E225" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2</v>
       </c>
@@ -5668,10 +5684,10 @@
         <v>52</v>
       </c>
       <c r="E226" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2</v>
       </c>
@@ -5685,10 +5701,10 @@
         <v>52</v>
       </c>
       <c r="E227" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2</v>
       </c>
@@ -5702,10 +5718,10 @@
         <v>52</v>
       </c>
       <c r="E228" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2</v>
       </c>
@@ -5719,10 +5735,10 @@
         <v>52</v>
       </c>
       <c r="E229" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2</v>
       </c>
@@ -5736,10 +5752,10 @@
         <v>52</v>
       </c>
       <c r="E230" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2</v>
       </c>
@@ -5753,10 +5769,10 @@
         <v>52</v>
       </c>
       <c r="E231" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2</v>
       </c>
@@ -5770,10 +5786,10 @@
         <v>52</v>
       </c>
       <c r="E232" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2</v>
       </c>
@@ -5787,10 +5803,10 @@
         <v>52</v>
       </c>
       <c r="E233" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2</v>
       </c>
@@ -5804,10 +5820,10 @@
         <v>54</v>
       </c>
       <c r="E234" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2</v>
       </c>
@@ -5821,10 +5837,10 @@
         <v>54</v>
       </c>
       <c r="E235" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2</v>
       </c>
@@ -5838,10 +5854,10 @@
         <v>54</v>
       </c>
       <c r="E236" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2</v>
       </c>
@@ -5855,10 +5871,10 @@
         <v>54</v>
       </c>
       <c r="E237" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2</v>
       </c>
@@ -5872,10 +5888,10 @@
         <v>54</v>
       </c>
       <c r="E238" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2</v>
       </c>
@@ -5889,10 +5905,10 @@
         <v>54</v>
       </c>
       <c r="E239" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2</v>
       </c>
@@ -5906,10 +5922,10 @@
         <v>57</v>
       </c>
       <c r="E240" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2</v>
       </c>
@@ -5923,10 +5939,10 @@
         <v>57</v>
       </c>
       <c r="E241" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2</v>
       </c>
@@ -5940,10 +5956,10 @@
         <v>57</v>
       </c>
       <c r="E242" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2</v>
       </c>
@@ -5957,10 +5973,10 @@
         <v>57</v>
       </c>
       <c r="E243" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2</v>
       </c>
@@ -5974,10 +5990,10 @@
         <v>60</v>
       </c>
       <c r="E244" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2</v>
       </c>
@@ -5991,10 +6007,10 @@
         <v>60</v>
       </c>
       <c r="E245" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2</v>
       </c>
@@ -6008,10 +6024,10 @@
         <v>60</v>
       </c>
       <c r="E246" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2</v>
       </c>
@@ -6025,10 +6041,10 @@
         <v>60</v>
       </c>
       <c r="E247" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2</v>
       </c>
@@ -6042,10 +6058,10 @@
         <v>62</v>
       </c>
       <c r="E248" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2</v>
       </c>
@@ -6059,10 +6075,10 @@
         <v>62</v>
       </c>
       <c r="E249" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2</v>
       </c>
@@ -6076,10 +6092,10 @@
         <v>62</v>
       </c>
       <c r="E250" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2</v>
       </c>
@@ -6093,10 +6109,10 @@
         <v>62</v>
       </c>
       <c r="E251" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2</v>
       </c>
@@ -6110,10 +6126,10 @@
         <v>64</v>
       </c>
       <c r="E252" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2</v>
       </c>
@@ -6127,10 +6143,10 @@
         <v>64</v>
       </c>
       <c r="E253" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2</v>
       </c>
@@ -6144,10 +6160,10 @@
         <v>64</v>
       </c>
       <c r="E254" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2</v>
       </c>
@@ -6161,10 +6177,10 @@
         <v>66</v>
       </c>
       <c r="E255" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2</v>
       </c>
@@ -6178,10 +6194,10 @@
         <v>66</v>
       </c>
       <c r="E256" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2</v>
       </c>
@@ -6195,10 +6211,10 @@
         <v>66</v>
       </c>
       <c r="E257" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2</v>
       </c>
@@ -6212,10 +6228,10 @@
         <v>66</v>
       </c>
       <c r="E258" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2</v>
       </c>
@@ -6229,10 +6245,10 @@
         <v>66</v>
       </c>
       <c r="E259" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2</v>
       </c>
@@ -6246,10 +6262,10 @@
         <v>66</v>
       </c>
       <c r="E260" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2</v>
       </c>
@@ -6263,10 +6279,10 @@
         <v>66</v>
       </c>
       <c r="E261" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2</v>
       </c>
@@ -6280,10 +6296,10 @@
         <v>66</v>
       </c>
       <c r="E262" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6297,10 +6313,10 @@
         <v>66</v>
       </c>
       <c r="E263" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2</v>
       </c>
@@ -6314,10 +6330,10 @@
         <v>66</v>
       </c>
       <c r="E264" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6331,10 +6347,10 @@
         <v>66</v>
       </c>
       <c r="E265" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2</v>
       </c>
@@ -6348,10 +6364,10 @@
         <v>66</v>
       </c>
       <c r="E266" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6365,10 +6381,10 @@
         <v>66</v>
       </c>
       <c r="E267" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2</v>
       </c>
@@ -6382,10 +6398,10 @@
         <v>66</v>
       </c>
       <c r="E268" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6399,10 +6415,10 @@
         <v>66</v>
       </c>
       <c r="E269" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6416,10 +6432,10 @@
         <v>66</v>
       </c>
       <c r="E270" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6433,10 +6449,10 @@
         <v>66</v>
       </c>
       <c r="E271" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2</v>
       </c>
@@ -6450,10 +6466,10 @@
         <v>66</v>
       </c>
       <c r="E272" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6467,10 +6483,10 @@
         <v>66</v>
       </c>
       <c r="E273" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6484,10 +6500,10 @@
         <v>66</v>
       </c>
       <c r="E274" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6501,10 +6517,10 @@
         <v>66</v>
       </c>
       <c r="E275" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6518,10 +6534,10 @@
         <v>66</v>
       </c>
       <c r="E276" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6535,10 +6551,10 @@
         <v>66</v>
       </c>
       <c r="E277" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6552,10 +6568,10 @@
         <v>66</v>
       </c>
       <c r="E278" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6569,10 +6585,10 @@
         <v>66</v>
       </c>
       <c r="E279" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6586,10 +6602,10 @@
         <v>69</v>
       </c>
       <c r="E280" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6603,10 +6619,10 @@
         <v>69</v>
       </c>
       <c r="E281" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6620,10 +6636,10 @@
         <v>69</v>
       </c>
       <c r="E282" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6637,10 +6653,10 @@
         <v>69</v>
       </c>
       <c r="E283" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6654,10 +6670,10 @@
         <v>69</v>
       </c>
       <c r="E284" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6671,10 +6687,10 @@
         <v>69</v>
       </c>
       <c r="E285" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6688,10 +6704,10 @@
         <v>69</v>
       </c>
       <c r="E286" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6705,10 +6721,10 @@
         <v>69</v>
       </c>
       <c r="E287" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6722,10 +6738,10 @@
         <v>69</v>
       </c>
       <c r="E288" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6739,10 +6755,10 @@
         <v>69</v>
       </c>
       <c r="E289" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6756,10 +6772,10 @@
         <v>69</v>
       </c>
       <c r="E290" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6773,10 +6789,10 @@
         <v>69</v>
       </c>
       <c r="E291" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6790,10 +6806,10 @@
         <v>69</v>
       </c>
       <c r="E292" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6807,10 +6823,10 @@
         <v>69</v>
       </c>
       <c r="E293" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6824,10 +6840,10 @@
         <v>69</v>
       </c>
       <c r="E294" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6841,10 +6857,10 @@
         <v>69</v>
       </c>
       <c r="E295" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6858,10 +6874,10 @@
         <v>69</v>
       </c>
       <c r="E296" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6875,10 +6891,10 @@
         <v>69</v>
       </c>
       <c r="E297" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6892,10 +6908,10 @@
         <v>69</v>
       </c>
       <c r="E298" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6909,10 +6925,10 @@
         <v>69</v>
       </c>
       <c r="E299" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6926,10 +6942,10 @@
         <v>69</v>
       </c>
       <c r="E300" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6943,10 +6959,10 @@
         <v>69</v>
       </c>
       <c r="E301" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6960,10 +6976,10 @@
         <v>71</v>
       </c>
       <c r="E302" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6977,10 +6993,10 @@
         <v>71</v>
       </c>
       <c r="E303" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6994,10 +7010,10 @@
         <v>71</v>
       </c>
       <c r="E304" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2</v>
       </c>
@@ -7011,10 +7027,10 @@
         <v>71</v>
       </c>
       <c r="E305" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2</v>
       </c>
@@ -7028,10 +7044,10 @@
         <v>71</v>
       </c>
       <c r="E306" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2</v>
       </c>
@@ -7045,10 +7061,10 @@
         <v>71</v>
       </c>
       <c r="E307" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2</v>
       </c>
@@ -7062,10 +7078,10 @@
         <v>73</v>
       </c>
       <c r="E308" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2</v>
       </c>
@@ -7079,10 +7095,10 @@
         <v>73</v>
       </c>
       <c r="E309" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2</v>
       </c>
@@ -7096,10 +7112,10 @@
         <v>73</v>
       </c>
       <c r="E310" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2</v>
       </c>
@@ -7113,10 +7129,10 @@
         <v>73</v>
       </c>
       <c r="E311" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2</v>
       </c>
@@ -7130,10 +7146,10 @@
         <v>75</v>
       </c>
       <c r="E312" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2</v>
       </c>
@@ -7147,10 +7163,10 @@
         <v>75</v>
       </c>
       <c r="E313" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2</v>
       </c>
@@ -7164,10 +7180,10 @@
         <v>75</v>
       </c>
       <c r="E314" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7181,10 +7197,10 @@
         <v>75</v>
       </c>
       <c r="E315" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2</v>
       </c>
@@ -7198,10 +7214,10 @@
         <v>75</v>
       </c>
       <c r="E316" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7215,10 +7231,10 @@
         <v>75</v>
       </c>
       <c r="E317" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7232,10 +7248,10 @@
         <v>75</v>
       </c>
       <c r="E318" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7249,10 +7265,10 @@
         <v>75</v>
       </c>
       <c r="E319" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7266,10 +7282,10 @@
         <v>75</v>
       </c>
       <c r="E320" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7283,10 +7299,10 @@
         <v>75</v>
       </c>
       <c r="E321" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7300,10 +7316,10 @@
         <v>75</v>
       </c>
       <c r="E322" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7317,10 +7333,10 @@
         <v>75</v>
       </c>
       <c r="E323" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7334,10 +7350,10 @@
         <v>75</v>
       </c>
       <c r="E324" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7351,10 +7367,10 @@
         <v>75</v>
       </c>
       <c r="E325" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7368,10 +7384,10 @@
         <v>75</v>
       </c>
       <c r="E326" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7385,10 +7401,10 @@
         <v>76</v>
       </c>
       <c r="E327" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7402,10 +7418,10 @@
         <v>77</v>
       </c>
       <c r="E328" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7419,10 +7435,10 @@
         <v>77</v>
       </c>
       <c r="E329" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7436,10 +7452,10 @@
         <v>77</v>
       </c>
       <c r="E330" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7453,10 +7469,10 @@
         <v>77</v>
       </c>
       <c r="E331" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7470,10 +7486,10 @@
         <v>77</v>
       </c>
       <c r="E332" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7487,10 +7503,10 @@
         <v>77</v>
       </c>
       <c r="E333" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7504,10 +7520,10 @@
         <v>80</v>
       </c>
       <c r="E334" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7521,10 +7537,10 @@
         <v>80</v>
       </c>
       <c r="E335" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7538,10 +7554,10 @@
         <v>80</v>
       </c>
       <c r="E336" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7555,10 +7571,10 @@
         <v>80</v>
       </c>
       <c r="E337" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7572,10 +7588,10 @@
         <v>80</v>
       </c>
       <c r="E338" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7589,10 +7605,10 @@
         <v>80</v>
       </c>
       <c r="E339" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7606,10 +7622,10 @@
         <v>80</v>
       </c>
       <c r="E340" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7623,10 +7639,10 @@
         <v>80</v>
       </c>
       <c r="E341" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7640,10 +7656,10 @@
         <v>83</v>
       </c>
       <c r="E342" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7657,10 +7673,10 @@
         <v>83</v>
       </c>
       <c r="E343" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7674,10 +7690,10 @@
         <v>83</v>
       </c>
       <c r="E344" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7691,10 +7707,10 @@
         <v>83</v>
       </c>
       <c r="E345" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7708,10 +7724,10 @@
         <v>83</v>
       </c>
       <c r="E346" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7725,10 +7741,10 @@
         <v>83</v>
       </c>
       <c r="E347" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7742,10 +7758,10 @@
         <v>83</v>
       </c>
       <c r="E348" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7759,10 +7775,10 @@
         <v>83</v>
       </c>
       <c r="E349" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7776,10 +7792,10 @@
         <v>83</v>
       </c>
       <c r="E350" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7793,10 +7809,10 @@
         <v>83</v>
       </c>
       <c r="E351" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7810,10 +7826,10 @@
         <v>83</v>
       </c>
       <c r="E352" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7827,10 +7843,10 @@
         <v>86</v>
       </c>
       <c r="E353" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7844,10 +7860,10 @@
         <v>86</v>
       </c>
       <c r="E354" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7861,10 +7877,10 @@
         <v>86</v>
       </c>
       <c r="E355" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7878,10 +7894,10 @@
         <v>86</v>
       </c>
       <c r="E356" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7895,10 +7911,10 @@
         <v>86</v>
       </c>
       <c r="E357" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7912,10 +7928,10 @@
         <v>86</v>
       </c>
       <c r="E358" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7929,10 +7945,10 @@
         <v>86</v>
       </c>
       <c r="E359" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7946,10 +7962,10 @@
         <v>86</v>
       </c>
       <c r="E360" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7963,10 +7979,10 @@
         <v>86</v>
       </c>
       <c r="E361" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7980,10 +7996,10 @@
         <v>86</v>
       </c>
       <c r="E362" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7997,10 +8013,10 @@
         <v>86</v>
       </c>
       <c r="E363" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2</v>
       </c>
@@ -8014,10 +8030,10 @@
         <v>86</v>
       </c>
       <c r="E364" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2</v>
       </c>
@@ -8031,10 +8047,10 @@
         <v>86</v>
       </c>
       <c r="E365" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2</v>
       </c>
@@ -8048,10 +8064,10 @@
         <v>86</v>
       </c>
       <c r="E366" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2</v>
       </c>
@@ -8065,10 +8081,10 @@
         <v>86</v>
       </c>
       <c r="E367" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2</v>
       </c>
@@ -8082,10 +8098,10 @@
         <v>86</v>
       </c>
       <c r="E368" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2</v>
       </c>
@@ -8099,10 +8115,10 @@
         <v>86</v>
       </c>
       <c r="E369" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2</v>
       </c>
@@ -8116,10 +8132,10 @@
         <v>86</v>
       </c>
       <c r="E370" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2</v>
       </c>
@@ -8133,10 +8149,10 @@
         <v>86</v>
       </c>
       <c r="E371" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2</v>
       </c>
@@ -8150,10 +8166,10 @@
         <v>86</v>
       </c>
       <c r="E372" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2</v>
       </c>
@@ -8167,10 +8183,10 @@
         <v>89</v>
       </c>
       <c r="E373" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2</v>
       </c>
@@ -8184,10 +8200,10 @@
         <v>89</v>
       </c>
       <c r="E374" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2</v>
       </c>
@@ -8201,10 +8217,10 @@
         <v>89</v>
       </c>
       <c r="E375" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8218,10 +8234,10 @@
         <v>89</v>
       </c>
       <c r="E376" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8235,10 +8251,10 @@
         <v>89</v>
       </c>
       <c r="E377" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8252,10 +8268,10 @@
         <v>89</v>
       </c>
       <c r="E378" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8269,10 +8285,10 @@
         <v>89</v>
       </c>
       <c r="E379" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8286,10 +8302,10 @@
         <v>89</v>
       </c>
       <c r="E380" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8303,10 +8319,10 @@
         <v>89</v>
       </c>
       <c r="E381" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8320,10 +8336,10 @@
         <v>89</v>
       </c>
       <c r="E382" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8337,10 +8353,10 @@
         <v>89</v>
       </c>
       <c r="E383" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8354,10 +8370,10 @@
         <v>90</v>
       </c>
       <c r="E384" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8371,10 +8387,10 @@
         <v>90</v>
       </c>
       <c r="E385" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8388,10 +8404,10 @@
         <v>90</v>
       </c>
       <c r="E386" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8405,10 +8421,10 @@
         <v>90</v>
       </c>
       <c r="E387" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8422,10 +8438,10 @@
         <v>90</v>
       </c>
       <c r="E388" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8439,10 +8455,10 @@
         <v>90</v>
       </c>
       <c r="E389" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8456,10 +8472,10 @@
         <v>90</v>
       </c>
       <c r="E390" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8473,10 +8489,10 @@
         <v>90</v>
       </c>
       <c r="E391" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8490,10 +8506,10 @@
         <v>90</v>
       </c>
       <c r="E392" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8507,10 +8523,10 @@
         <v>90</v>
       </c>
       <c r="E393" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8524,10 +8540,10 @@
         <v>90</v>
       </c>
       <c r="E394" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8541,10 +8557,10 @@
         <v>90</v>
       </c>
       <c r="E395" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8558,10 +8574,10 @@
         <v>90</v>
       </c>
       <c r="E396" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8575,10 +8591,10 @@
         <v>92</v>
       </c>
       <c r="E397" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8592,10 +8608,10 @@
         <v>92</v>
       </c>
       <c r="E398" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8609,10 +8625,10 @@
         <v>92</v>
       </c>
       <c r="E399" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8626,10 +8642,10 @@
         <v>92</v>
       </c>
       <c r="E400" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8643,10 +8659,10 @@
         <v>92</v>
       </c>
       <c r="E401" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8660,10 +8676,10 @@
         <v>93</v>
       </c>
       <c r="E402" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8677,10 +8693,10 @@
         <v>93</v>
       </c>
       <c r="E403" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8694,10 +8710,10 @@
         <v>93</v>
       </c>
       <c r="E404" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8711,10 +8727,10 @@
         <v>94</v>
       </c>
       <c r="E405" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8728,10 +8744,10 @@
         <v>94</v>
       </c>
       <c r="E406" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8745,10 +8761,10 @@
         <v>94</v>
       </c>
       <c r="E407" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8762,10 +8778,10 @@
         <v>94</v>
       </c>
       <c r="E408" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8779,10 +8795,10 @@
         <v>94</v>
       </c>
       <c r="E409" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8796,10 +8812,10 @@
         <v>94</v>
       </c>
       <c r="E410" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8813,10 +8829,10 @@
         <v>94</v>
       </c>
       <c r="E411" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8830,10 +8846,10 @@
         <v>94</v>
       </c>
       <c r="E412" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8847,10 +8863,10 @@
         <v>94</v>
       </c>
       <c r="E413" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8864,10 +8880,10 @@
         <v>94</v>
       </c>
       <c r="E414" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8881,10 +8897,10 @@
         <v>94</v>
       </c>
       <c r="E415" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8898,10 +8914,10 @@
         <v>94</v>
       </c>
       <c r="E416" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8915,10 +8931,10 @@
         <v>94</v>
       </c>
       <c r="E417" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8932,10 +8948,10 @@
         <v>94</v>
       </c>
       <c r="E418" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8949,10 +8965,10 @@
         <v>94</v>
       </c>
       <c r="E419" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8966,10 +8982,10 @@
         <v>94</v>
       </c>
       <c r="E420" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8983,10 +8999,10 @@
         <v>94</v>
       </c>
       <c r="E421" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2</v>
       </c>
@@ -9000,10 +9016,10 @@
         <v>94</v>
       </c>
       <c r="E422" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2</v>
       </c>
@@ -9017,10 +9033,10 @@
         <v>94</v>
       </c>
       <c r="E423" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2</v>
       </c>
@@ -9034,10 +9050,10 @@
         <v>94</v>
       </c>
       <c r="E424" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2</v>
       </c>
@@ -9051,10 +9067,10 @@
         <v>95</v>
       </c>
       <c r="E425" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2</v>
       </c>
@@ -9068,10 +9084,10 @@
         <v>95</v>
       </c>
       <c r="E426" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2</v>
       </c>
@@ -9085,10 +9101,10 @@
         <v>95</v>
       </c>
       <c r="E427" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2</v>
       </c>
@@ -9102,10 +9118,10 @@
         <v>95</v>
       </c>
       <c r="E428" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2</v>
       </c>
@@ -9119,10 +9135,10 @@
         <v>96</v>
       </c>
       <c r="E429" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2</v>
       </c>
@@ -9136,10 +9152,10 @@
         <v>97</v>
       </c>
       <c r="E430" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2</v>
       </c>
@@ -9153,10 +9169,10 @@
         <v>97</v>
       </c>
       <c r="E431" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2</v>
       </c>
@@ -9170,10 +9186,10 @@
         <v>97</v>
       </c>
       <c r="E432" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2</v>
       </c>
@@ -9187,10 +9203,10 @@
         <v>97</v>
       </c>
       <c r="E433" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2</v>
       </c>
@@ -9204,10 +9220,10 @@
         <v>97</v>
       </c>
       <c r="E434" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9221,10 +9237,10 @@
         <v>97</v>
       </c>
       <c r="E435" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9238,10 +9254,10 @@
         <v>97</v>
       </c>
       <c r="E436" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9255,10 +9271,10 @@
         <v>100</v>
       </c>
       <c r="E437" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9272,10 +9288,10 @@
         <v>100</v>
       </c>
       <c r="E438" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9289,10 +9305,10 @@
         <v>100</v>
       </c>
       <c r="E439" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9306,10 +9322,10 @@
         <v>100</v>
       </c>
       <c r="E440" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9323,10 +9339,10 @@
         <v>100</v>
       </c>
       <c r="E441" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9340,10 +9356,10 @@
         <v>100</v>
       </c>
       <c r="E442" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9357,10 +9373,10 @@
         <v>100</v>
       </c>
       <c r="E443" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9374,10 +9390,10 @@
         <v>100</v>
       </c>
       <c r="E444" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9391,10 +9407,10 @@
         <v>100</v>
       </c>
       <c r="E445" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9408,10 +9424,10 @@
         <v>100</v>
       </c>
       <c r="E446" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9425,10 +9441,10 @@
         <v>100</v>
       </c>
       <c r="E447" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9442,10 +9458,10 @@
         <v>100</v>
       </c>
       <c r="E448" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9459,10 +9475,10 @@
         <v>100</v>
       </c>
       <c r="E449" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9476,10 +9492,10 @@
         <v>102</v>
       </c>
       <c r="E450" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9493,10 +9509,10 @@
         <v>102</v>
       </c>
       <c r="E451" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9510,10 +9526,10 @@
         <v>102</v>
       </c>
       <c r="E452" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9527,10 +9543,10 @@
         <v>102</v>
       </c>
       <c r="E453" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9544,10 +9560,10 @@
         <v>102</v>
       </c>
       <c r="E454" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9561,10 +9577,10 @@
         <v>102</v>
       </c>
       <c r="E455" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9578,10 +9594,10 @@
         <v>102</v>
       </c>
       <c r="E456" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9595,10 +9611,10 @@
         <v>102</v>
       </c>
       <c r="E457" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9612,10 +9628,10 @@
         <v>102</v>
       </c>
       <c r="E458" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9629,10 +9645,10 @@
         <v>102</v>
       </c>
       <c r="E459" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9646,10 +9662,10 @@
         <v>105</v>
       </c>
       <c r="E460" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9663,10 +9679,10 @@
         <v>105</v>
       </c>
       <c r="E461" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9680,10 +9696,10 @@
         <v>105</v>
       </c>
       <c r="E462" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9697,10 +9713,10 @@
         <v>105</v>
       </c>
       <c r="E463" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9714,7 +9730,7 @@
         <v>105</v>
       </c>
       <c r="E464" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
